--- a/output/fit_clients/fit_round_441.xlsx
+++ b/output/fit_clients/fit_round_441.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2338505135.564762</v>
+        <v>1663042991.057343</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09386305054670371</v>
+        <v>0.1051672294688384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03607873382703134</v>
+        <v>0.03485058523268209</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1169252608.931064</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2331869195.172411</v>
+        <v>2557621330.792732</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1800951251935649</v>
+        <v>0.1368111170677386</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03198322485410834</v>
+        <v>0.0428322521581891</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1165934689.066016</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3311092439.666158</v>
+        <v>3529450577.022957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.127746570740283</v>
+        <v>0.1038435305832134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03391697112080873</v>
+        <v>0.03306455918544927</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>159</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1655546185.237156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3524591581.215342</v>
+        <v>3056062086.682831</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08159799341015055</v>
+        <v>0.08352571362377736</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04505982655786684</v>
+        <v>0.04859890133772156</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>163</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1762295825.802448</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2389996177.373555</v>
+        <v>2123396874.355724</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1434261356620275</v>
+        <v>0.1336426441018369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05582027843354945</v>
+        <v>0.05446727812371013</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1194998076.092308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2674505947.567779</v>
+        <v>2514099167.407876</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07613043059391225</v>
+        <v>0.09291917043658696</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03021566229712024</v>
+        <v>0.04068919882797833</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>138</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1337252970.037048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2546214805.548259</v>
+        <v>3966024627.525498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2099547946580139</v>
+        <v>0.1675381852797419</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02280329693547438</v>
+        <v>0.02473847427267332</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>141</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1273107413.919122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1478965731.403718</v>
+        <v>1555533260.251568</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1382053948644223</v>
+        <v>0.1958401135629961</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02401040309744432</v>
+        <v>0.03466091558855657</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>739482964.6193515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5916702099.082413</v>
+        <v>3858551906.420819</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2132709427843535</v>
+        <v>0.1885238501826993</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04329428672268164</v>
+        <v>0.04597086649061667</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>186</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2958351219.831017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3033827081.749694</v>
+        <v>3792664030.103132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1654445276572804</v>
+        <v>0.1473272022297057</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04313246750401737</v>
+        <v>0.03241347041705228</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>182</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1516913486.242163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2188425387.742867</v>
+        <v>2556052598.244903</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1391308051990132</v>
+        <v>0.1426815596789513</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04297478181686315</v>
+        <v>0.0463644317285296</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>151</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1094212637.567547</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3971649825.304786</v>
+        <v>4704667406.370955</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07407332777456858</v>
+        <v>0.08131939656702195</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02848507810898438</v>
+        <v>0.02683624979884845</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>149</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1985824969.039233</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2927349596.847522</v>
+        <v>2736536344.871673</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1466698417337829</v>
+        <v>0.1850674262827925</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04059536422635746</v>
+        <v>0.03627537852234182</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>141</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1463674838.143525</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1823401727.626263</v>
+        <v>1206219819.747584</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06885752708147003</v>
+        <v>0.07107906042928784</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04199478580893069</v>
+        <v>0.03157675096481844</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>911701022.6592203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2813567593.169683</v>
+        <v>2578519032.408274</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09187134018923745</v>
+        <v>0.07080665720805965</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04936884463524784</v>
+        <v>0.03876881306457023</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>91</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1406783799.409209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5241235644.168214</v>
+        <v>3442141664.621758</v>
       </c>
       <c r="F17" t="n">
-        <v>0.146012775497903</v>
+        <v>0.1693450969102371</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04977506531379516</v>
+        <v>0.04744900970642223</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>130</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2620617795.359745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2841491645.333192</v>
+        <v>3042968257.73198</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1819000110348746</v>
+        <v>0.1355541074544516</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03235223726864005</v>
+        <v>0.02393651763229742</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>144</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1420745864.381608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1078735110.23768</v>
+        <v>1342792806.610463</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1616446861065043</v>
+        <v>0.1531548002672719</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02176158313972339</v>
+        <v>0.02674028778982453</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>539367603.5447237</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1694743155.992532</v>
+        <v>2429956246.550454</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1174432162920604</v>
+        <v>0.1492765414949055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02066162753788878</v>
+        <v>0.02655674224987434</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>61</v>
-      </c>
-      <c r="J20" t="n">
-        <v>847371636.8742499</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2179519073.200609</v>
+        <v>2381641879.594847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09227296068066099</v>
+        <v>0.07397643750580782</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03454691629873498</v>
+        <v>0.03914077774319948</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1089759555.416115</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3083091940.907052</v>
+        <v>2935453843.550165</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0986467611042979</v>
+        <v>0.1038210431221483</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04694239321101754</v>
+        <v>0.05605089488443322</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>121</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1541546027.02933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>974133994.4073904</v>
+        <v>990261462.170454</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1396745673572006</v>
+        <v>0.14271759119111</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04008509102642024</v>
+        <v>0.03894789110811559</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>487067071.7531071</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3200566325.307804</v>
+        <v>2682760788.017529</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1086779016461722</v>
+        <v>0.1054406171082009</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02627171166834878</v>
+        <v>0.03646707689485363</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>130</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1600283184.425771</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1316737914.859982</v>
+        <v>953519474.2494074</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07970370203204118</v>
+        <v>0.08825268053787082</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02656768133192609</v>
+        <v>0.01899275500405597</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>658368948.5566798</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>933117711.5542645</v>
+        <v>924713778.9165287</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1104146953120148</v>
+        <v>0.1209887590433041</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03674850147637324</v>
+        <v>0.02688187519155526</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>466558811.4957836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3593518958.164787</v>
+        <v>3783566659.191959</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09835277007048585</v>
+        <v>0.1176472442602798</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02637259224503519</v>
+        <v>0.01677829652683829</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1796759509.423875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2666365114.236885</v>
+        <v>2839162036.757954</v>
       </c>
       <c r="F28" t="n">
-        <v>0.111638785257279</v>
+        <v>0.1497424860659487</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04368631549381163</v>
+        <v>0.03180175593815998</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>142</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1333182539.381506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5625196212.509755</v>
+        <v>3972359866.133787</v>
       </c>
       <c r="F29" t="n">
-        <v>0.100438841816081</v>
+        <v>0.1494851339349643</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03484831261499335</v>
+        <v>0.04517117735425948</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>195</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2812598010.520918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2271930369.339204</v>
+        <v>2251275534.908092</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1354228113085258</v>
+        <v>0.1293134980795088</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02539951171825928</v>
+        <v>0.03916840141168129</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1135965253.150133</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1304067968.47203</v>
+        <v>1143453866.963512</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09308084574068866</v>
+        <v>0.08740472393017322</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04328524187221267</v>
+        <v>0.04626563153615292</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>652033911.2146024</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1416905902.833405</v>
+        <v>1479579690.273407</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1195833713610227</v>
+        <v>0.09547200963585048</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03449099486874449</v>
+        <v>0.02982977811737516</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>708453002.5861698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2820036139.796914</v>
+        <v>2014100952.842499</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1770236011389252</v>
+        <v>0.1364148378138512</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05338045815398364</v>
+        <v>0.0426248190993489</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>135</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1410018080.893504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1074104337.798833</v>
+        <v>1132619252.903212</v>
       </c>
       <c r="F34" t="n">
-        <v>0.118959554963372</v>
+        <v>0.110267699725909</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02291830977775619</v>
+        <v>0.01872770108899263</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>537052194.5873137</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1337914531.521673</v>
+        <v>1202394015.587997</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1055078161710157</v>
+        <v>0.106156750369051</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03457629515200195</v>
+        <v>0.02948870376849297</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>668957210.2601072</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2221872080.749848</v>
+        <v>3021833785.741922</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1124095616035437</v>
+        <v>0.1740083896749991</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02308632700130986</v>
+        <v>0.01826700673279616</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>112</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1110936084.655991</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2500592125.3437</v>
+        <v>1938127024.529042</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08203621297803597</v>
+        <v>0.09317368578562477</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03782785109271875</v>
+        <v>0.0278863927066111</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>119</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1250296158.823915</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1348024755.794779</v>
+        <v>1570439616.827292</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08417939362075716</v>
+        <v>0.08134453306833478</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03561316093862189</v>
+        <v>0.03847932880661322</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>674012448.6417546</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2149567256.606405</v>
+        <v>1786761998.820969</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1804290530171522</v>
+        <v>0.1333422675444556</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02389305047552341</v>
+        <v>0.02068912431053148</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1074783600.162502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1596697648.591079</v>
+        <v>1817862027.625017</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1084443786638543</v>
+        <v>0.1436830001057283</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05352545454987515</v>
+        <v>0.05489496281293567</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>798348766.3050704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1846870000.720228</v>
+        <v>2380498801.587416</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1136422223211043</v>
+        <v>0.1268695283971505</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03254125769317311</v>
+        <v>0.03806137290484432</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>923435089.5609434</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3654722065.418657</v>
+        <v>3637809260.214897</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1181446951870123</v>
+        <v>0.1204937583837469</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04193896912623277</v>
+        <v>0.03940140239210157</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1827361038.22201</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2856591857.027903</v>
+        <v>2603015393.596466</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1743696225013514</v>
+        <v>0.1724774023697543</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02550755766981761</v>
+        <v>0.0205668749428908</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>152</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1428295941.320807</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2086021765.0166</v>
+        <v>1865436511.270509</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0917390772662522</v>
+        <v>0.06248736852891955</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02867649757460204</v>
+        <v>0.03715344254230151</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1043011006.019002</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2352308105.580808</v>
+        <v>2417051683.365068</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1559730475534161</v>
+        <v>0.1368840787084659</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04607637688762555</v>
+        <v>0.03984037824349451</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1176154079.158666</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3689489062.58455</v>
+        <v>4086113470.12104</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1438811046213209</v>
+        <v>0.1774407335946452</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04102105040769106</v>
+        <v>0.04488294340239357</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>157</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1844744483.060653</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4650312283.415603</v>
+        <v>4167900673.190318</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1464472240441698</v>
+        <v>0.1490883841932928</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04481607331112956</v>
+        <v>0.05305704907655571</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>122</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2325156177.71554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3151284478.818148</v>
+        <v>4710664592.235376</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1095825495180002</v>
+        <v>0.1002582899199169</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03585578208873326</v>
+        <v>0.02753486483320553</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>145</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1575642323.126984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1730891017.080524</v>
+        <v>1363249488.598906</v>
       </c>
       <c r="F49" t="n">
-        <v>0.149563179215711</v>
+        <v>0.1683638132372687</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03291545504267738</v>
+        <v>0.04468758370244864</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>865445504.6875551</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3455842688.128377</v>
+        <v>3608238929.178373</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1655637291229759</v>
+        <v>0.1309081287327936</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0527907810026313</v>
+        <v>0.03924637703469263</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>151</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1727921371.469753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1325017451.598064</v>
+        <v>1110722855.311749</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1199566733994238</v>
+        <v>0.1409664626396421</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04212585286582726</v>
+        <v>0.04521007193919102</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>662508757.1157136</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3676979581.892089</v>
+        <v>4485297562.425619</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1036107987986975</v>
+        <v>0.1323048925198958</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0473829225775169</v>
+        <v>0.03821171511299416</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>182</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1838489866.457344</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2788328304.173106</v>
+        <v>3262223331.069333</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1998980201381372</v>
+        <v>0.1939051789670175</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02182285825570886</v>
+        <v>0.03159009082702262</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1394164199.124037</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4709897814.885349</v>
+        <v>3451801579.122895</v>
       </c>
       <c r="F54" t="n">
-        <v>0.134644876590076</v>
+        <v>0.1158407159807322</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0480041312245521</v>
+        <v>0.04756182762957512</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>143</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2354949027.29429</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3147030818.548338</v>
+        <v>3008080635.529491</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1449051370685551</v>
+        <v>0.1387992529577355</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02189213474299061</v>
+        <v>0.02992098823076823</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1573515346.588281</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1881863278.747265</v>
+        <v>1361312632.376807</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1159065495375708</v>
+        <v>0.1252048899980391</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05042018915649715</v>
+        <v>0.03661753118638914</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>940931625.0768102</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4236584775.467523</v>
+        <v>3918087041.629298</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1231579947012288</v>
+        <v>0.1337720709378631</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02339095262289249</v>
+        <v>0.02597802907169894</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>140</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2118292495.98309</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1868741110.557928</v>
+        <v>1786387919.999914</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1506315514301733</v>
+        <v>0.1777018636037129</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03056593878690877</v>
+        <v>0.0338013058217373</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>934370552.7783266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4098277672.983081</v>
+        <v>4363385182.370206</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1109242464003131</v>
+        <v>0.09102461098265076</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04524133751992429</v>
+        <v>0.04253579757481389</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2049138807.714916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2420249669.123178</v>
+        <v>2696240754.067253</v>
       </c>
       <c r="F60" t="n">
-        <v>0.132061559117799</v>
+        <v>0.1905708694165412</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02944991264150838</v>
+        <v>0.03280298351075379</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>137</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1210124844.118576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2440870234.938613</v>
+        <v>2947622359.884899</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1519389336660603</v>
+        <v>0.1105679421506386</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02613222326316249</v>
+        <v>0.02966323090851927</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>152</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1220435150.68068</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1717333166.598536</v>
+        <v>1402155977.682344</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1861624855119977</v>
+        <v>0.1192039265415856</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04178110681571623</v>
+        <v>0.03635479711176681</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>858666598.9520371</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5121386801.346532</v>
+        <v>5300794433.056261</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08542401054137551</v>
+        <v>0.1060047859204796</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03454958480407973</v>
+        <v>0.03964779326360324</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2560693413.065641</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5299204535.455442</v>
+        <v>3891638083.256375</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1304400468764271</v>
+        <v>0.135075024459524</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02142916747477652</v>
+        <v>0.03286578897739308</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>137</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2649602394.993953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4691005433.920371</v>
+        <v>5708074649.565981</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1700921869308047</v>
+        <v>0.1407064785329413</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02626909367251796</v>
+        <v>0.02082675998722176</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>158</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2345502694.317045</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5242417692.778929</v>
+        <v>3494192781.417508</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1369868934938707</v>
+        <v>0.1261705768544027</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03472551845662779</v>
+        <v>0.04736880959719281</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>132</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2621208886.592405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2563512219.711865</v>
+        <v>2847226260.05228</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09063933736135113</v>
+        <v>0.07099249951973931</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04273076034215659</v>
+        <v>0.0438982394836953</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>140</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1281756165.063142</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5966609044.800354</v>
+        <v>3786463220.892652</v>
       </c>
       <c r="F68" t="n">
-        <v>0.129403168477659</v>
+        <v>0.1525624173890218</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04313219136983532</v>
+        <v>0.03465618223714047</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2983304637.385512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1803959119.386864</v>
+        <v>2087297197.970999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1242457925966761</v>
+        <v>0.1305761737209105</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05500154970729974</v>
+        <v>0.04440994361916643</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>901979539.3201413</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3285265696.0042</v>
+        <v>2269605345.00586</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08532509057632573</v>
+        <v>0.09025247069368079</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02995149043220664</v>
+        <v>0.03085858753898102</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>126</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1642632843.584709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5601271248.827319</v>
+        <v>3670322042.390929</v>
       </c>
       <c r="F71" t="n">
-        <v>0.177039868312876</v>
+        <v>0.1680444194027174</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02186154988660812</v>
+        <v>0.02604844288811601</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>160</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2800635775.027267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1833784723.332142</v>
+        <v>1388338322.65718</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09208512128919036</v>
+        <v>0.09246265002178226</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04937393735934909</v>
+        <v>0.03761863944885897</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>916892334.8331953</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3224536890.611254</v>
+        <v>2898937918.480237</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07389651995131953</v>
+        <v>0.09786299164411845</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03685995841643298</v>
+        <v>0.03634692711530452</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>167</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1612268420.738076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2966735667.465745</v>
+        <v>3989756388.678019</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1371006298120366</v>
+        <v>0.1827000508323333</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03272620806531676</v>
+        <v>0.03312716687394163</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>150</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1483367902.023208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2424287810.988184</v>
+        <v>2476106390.708362</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1142265231096876</v>
+        <v>0.1524217481028009</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02663466238230485</v>
+        <v>0.03707301062454386</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1212143829.89221</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5243380965.603875</v>
+        <v>3753140777.14505</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1247024770856962</v>
+        <v>0.1240775674347371</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03114523840062012</v>
+        <v>0.03102417739354396</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2621690519.686615</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1704775233.571111</v>
+        <v>2273708395.719658</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1405421879898833</v>
+        <v>0.1128450403785595</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02884982230042139</v>
+        <v>0.02825489526779038</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>852387634.7239964</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2939764783.063953</v>
+        <v>3798653390.510862</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1054983816937852</v>
+        <v>0.1050826170027298</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03984417026917567</v>
+        <v>0.0473708603040224</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>153</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1469882433.170656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1450778746.121537</v>
+        <v>1756495720.004471</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1663392145426346</v>
+        <v>0.1504609006694973</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03422389870079807</v>
+        <v>0.02908558469470738</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>725389398.6470573</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4635203761.172203</v>
+        <v>3389077895.740707</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07426031770284644</v>
+        <v>0.09590465411476036</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0255495753229823</v>
+        <v>0.03757455990816488</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2317601911.652586</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4814086483.922308</v>
+        <v>3483614423.427887</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1107857551883841</v>
+        <v>0.134987893685065</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03130081288833902</v>
+        <v>0.02573494963037647</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2407043235.413498</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5699918876.156166</v>
+        <v>3939955847.661106</v>
       </c>
       <c r="F82" t="n">
-        <v>0.199140431808271</v>
+        <v>0.1850755107669158</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02457409313861546</v>
+        <v>0.01934151739611211</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>154</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2849959382.98866</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1581128458.50238</v>
+        <v>2078606721.39732</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1363764691488909</v>
+        <v>0.1467453614602671</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04519232688598433</v>
+        <v>0.02824348117834358</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>790564162.4657317</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1867465685.556423</v>
+        <v>2287447897.568321</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07354156802237025</v>
+        <v>0.0828876126261848</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04643187437938285</v>
+        <v>0.04791184040761651</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>933732867.2603331</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3365455600.133726</v>
+        <v>2383402568.674478</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1665291029663284</v>
+        <v>0.1397176814867157</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04704663607097162</v>
+        <v>0.04662044632323865</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>167</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1682727900.584623</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2295532672.581008</v>
+        <v>2693690128.050788</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1314218557816232</v>
+        <v>0.1288900070886989</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02465950114036207</v>
+        <v>0.02376368510076728</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1147766405.035491</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1155033669.305196</v>
+        <v>1459953884.895733</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1741152059465378</v>
+        <v>0.1605568804116749</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02880352166676205</v>
+        <v>0.03221449399795475</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>577516878.7344911</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2996059869.505421</v>
+        <v>2379892996.170793</v>
       </c>
       <c r="F88" t="n">
-        <v>0.155260572931617</v>
+        <v>0.1524127218929661</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02505874564332265</v>
+        <v>0.03711101613917328</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>175</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1498029964.829402</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2552511826.352719</v>
+        <v>2884648084.193506</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1409762635445749</v>
+        <v>0.1137040204598671</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0349536263231738</v>
+        <v>0.03215765894241128</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>149</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1276255984.096289</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1547022154.057682</v>
+        <v>1997159277.143302</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1072835879556141</v>
+        <v>0.1365535856320859</v>
       </c>
       <c r="G90" t="n">
-        <v>0.044421646548898</v>
+        <v>0.04957369927237057</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>773511064.4185592</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1600693224.439565</v>
+        <v>1783716767.809447</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1801324174424842</v>
+        <v>0.1275909794631125</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03745374393659053</v>
+        <v>0.04609103566980446</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>800346637.7141006</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2445161160.614752</v>
+        <v>2560789161.508933</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08367282944351571</v>
+        <v>0.09610430007470701</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03967651137829042</v>
+        <v>0.04712485500414688</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>122</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1222580560.18083</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3894315534.066856</v>
+        <v>4376319405.027874</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1010624965963153</v>
+        <v>0.08995524630188488</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03453839087997127</v>
+        <v>0.04828302687423177</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1947157774.512617</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1836751897.578945</v>
+        <v>1818225804.262336</v>
       </c>
       <c r="F94" t="n">
-        <v>0.15327865131096</v>
+        <v>0.1531078256474162</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03403563851638526</v>
+        <v>0.03938365660531879</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>918375925.9700706</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3025503907.549075</v>
+        <v>2512505652.915513</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1092109386416254</v>
+        <v>0.1094295342592638</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04510096319207794</v>
+        <v>0.04582449485002951</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>107</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1512751951.659981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1536890784.576386</v>
+        <v>2098849511.412456</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1178447871066574</v>
+        <v>0.1001049175007382</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03532174695987281</v>
+        <v>0.02994877485271568</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>768445428.7092211</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4676110064.975763</v>
+        <v>3316560751.33623</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1347330321755281</v>
+        <v>0.1070236266220994</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01965565176412724</v>
+        <v>0.02278197386869326</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>142</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2338055143.255169</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3819537299.538404</v>
+        <v>3073361906.796502</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1192865492283574</v>
+        <v>0.106188416046422</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01979381788195749</v>
+        <v>0.02619223002441447</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1909768690.041228</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3017873374.066528</v>
+        <v>3435470060.665604</v>
       </c>
       <c r="F99" t="n">
-        <v>0.128934766573355</v>
+        <v>0.1092147872139729</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03064091430491853</v>
+        <v>0.02416550448901279</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>138</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1508936674.347711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3713152937.40657</v>
+        <v>3574552497.754285</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1081991492682634</v>
+        <v>0.1414277760225232</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02098271656381652</v>
+        <v>0.01989600738560949</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1856576516.50078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2852182152.400782</v>
+        <v>2482906278.91627</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1881367752871896</v>
+        <v>0.1981987901021839</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03952849533670033</v>
+        <v>0.0483865306302957</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>180</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1426091145.783314</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_441.xlsx
+++ b/output/fit_clients/fit_round_441.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1663042991.057343</v>
+        <v>2418777430.927398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1051672294688384</v>
+        <v>0.08904326461441008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03485058523268209</v>
+        <v>0.03426947744463623</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2557621330.792732</v>
+        <v>1872215884.554269</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1368111170677386</v>
+        <v>0.1501286849019819</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0428322521581891</v>
+        <v>0.03370790581479456</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3529450577.022957</v>
+        <v>5066428722.782322</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1038435305832134</v>
+        <v>0.1565409159963268</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03306455918544927</v>
+        <v>0.03472438658909109</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3056062086.682831</v>
+        <v>3897500082.563125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08352571362377736</v>
+        <v>0.1015353336812683</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04859890133772156</v>
+        <v>0.04312094257198846</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2123396874.355724</v>
+        <v>2701737648.868329</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1336426441018369</v>
+        <v>0.1118582408068923</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05446727812371013</v>
+        <v>0.05619441491371067</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2514099167.407876</v>
+        <v>2969162993.398118</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09291917043658696</v>
+        <v>0.09525216832651232</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04068919882797833</v>
+        <v>0.03751118251709237</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3966024627.525498</v>
+        <v>3250278422.324477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1675381852797419</v>
+        <v>0.1834760613641757</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02473847427267332</v>
+        <v>0.02375910620870629</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1555533260.251568</v>
+        <v>2079288179.53527</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1958401135629961</v>
+        <v>0.1682130224081825</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03466091558855657</v>
+        <v>0.03038971534580451</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3858551906.420819</v>
+        <v>4728232272.026275</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1885238501826993</v>
+        <v>0.1636164181596121</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04597086649061667</v>
+        <v>0.04859607694644206</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3792664030.103132</v>
+        <v>2672098793.961171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1473272022297057</v>
+        <v>0.139619713540156</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03241347041705228</v>
+        <v>0.0360946297831378</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2556052598.244903</v>
+        <v>2206978026.616012</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1426815596789513</v>
+        <v>0.1732342120155384</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0463644317285296</v>
+        <v>0.0468348321254999</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4704667406.370955</v>
+        <v>5348412108.459918</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08131939656702195</v>
+        <v>0.087401874017391</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02683624979884845</v>
+        <v>0.02154840817825745</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2736536344.871673</v>
+        <v>2628971121.271673</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1850674262827925</v>
+        <v>0.1483774751558135</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03627537852234182</v>
+        <v>0.03888593859002096</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1206219819.747584</v>
+        <v>1570888199.151475</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07107906042928784</v>
+        <v>0.09930099235343683</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03157675096481844</v>
+        <v>0.04216713907944607</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2578519032.408274</v>
+        <v>2268371743.461908</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07080665720805965</v>
+        <v>0.07175763623637534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03876881306457023</v>
+        <v>0.04785205300742913</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3442141664.621758</v>
+        <v>4613844575.156375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1693450969102371</v>
+        <v>0.1709207375397733</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04744900970642223</v>
+        <v>0.04079652275268954</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3042968257.73198</v>
+        <v>3734283958.415928</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1355541074544516</v>
+        <v>0.1607202994175761</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02393651763229742</v>
+        <v>0.0292232363650671</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1342792806.610463</v>
+        <v>1343892744.942403</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1531548002672719</v>
+        <v>0.1443732519204959</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02674028778982453</v>
+        <v>0.01770008679540451</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2429956246.550454</v>
+        <v>2510721395.755836</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1492765414949055</v>
+        <v>0.1575135306383116</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02655674224987434</v>
+        <v>0.0245565083206102</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2381641879.594847</v>
+        <v>2267116811.22727</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07397643750580782</v>
+        <v>0.07544408286899734</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03914077774319948</v>
+        <v>0.03326075351998075</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2935453843.550165</v>
+        <v>3679906925.301163</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1038210431221483</v>
+        <v>0.1071387443597892</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05605089488443322</v>
+        <v>0.03721371678823807</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>990261462.170454</v>
+        <v>1114748956.772806</v>
       </c>
       <c r="F23" t="n">
-        <v>0.14271759119111</v>
+        <v>0.1251645505457084</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03894789110811559</v>
+        <v>0.03605711371222663</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2682760788.017529</v>
+        <v>3522476014.562016</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1054406171082009</v>
+        <v>0.09959663864289436</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03646707689485363</v>
+        <v>0.03702293568835331</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>953519474.2494074</v>
+        <v>910525213.2077088</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08825268053787082</v>
+        <v>0.1202300970193361</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01899275500405597</v>
+        <v>0.02280697571983635</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>924713778.9165287</v>
+        <v>1098383761.585404</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1209887590433041</v>
+        <v>0.0761741683534317</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02688187519155526</v>
+        <v>0.03304070343512006</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3783566659.191959</v>
+        <v>3124970373.455836</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1176472442602798</v>
+        <v>0.1024314020788376</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01677829652683829</v>
+        <v>0.0179658958707082</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2839162036.757954</v>
+        <v>3596885105.65667</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1497424860659487</v>
+        <v>0.1476001042035167</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03180175593815998</v>
+        <v>0.03459328523228359</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3972359866.133787</v>
+        <v>4764748042.957742</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1494851339349643</v>
+        <v>0.1490879125562992</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04517117735425948</v>
+        <v>0.03305134529751795</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2251275534.908092</v>
+        <v>1778484180.598342</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1293134980795088</v>
+        <v>0.1315492394882851</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03916840141168129</v>
+        <v>0.02691916103581032</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1143453866.963512</v>
+        <v>1021890537.5708</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08740472393017322</v>
+        <v>0.08418919900227977</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04626563153615292</v>
+        <v>0.04145515450508006</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1479579690.273407</v>
+        <v>1418490089.585738</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09547200963585048</v>
+        <v>0.1156233552382834</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02982977811737516</v>
+        <v>0.03216088768521943</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2014100952.842499</v>
+        <v>1941420726.645287</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1364148378138512</v>
+        <v>0.2092576472371474</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0426248190993489</v>
+        <v>0.04596344586821242</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1132619252.903212</v>
+        <v>1108695047.826239</v>
       </c>
       <c r="F34" t="n">
-        <v>0.110267699725909</v>
+        <v>0.08889585301235192</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01872770108899263</v>
+        <v>0.02305723161691168</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1202394015.587997</v>
+        <v>1222832062.792363</v>
       </c>
       <c r="F35" t="n">
-        <v>0.106156750369051</v>
+        <v>0.09727526660769757</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02948870376849297</v>
+        <v>0.03510740998856453</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3021833785.741922</v>
+        <v>2332589098.663006</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1740083896749991</v>
+        <v>0.124962977280228</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01826700673279616</v>
+        <v>0.01906928997110365</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1938127024.529042</v>
+        <v>2200256395.742783</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09317368578562477</v>
+        <v>0.1006830450083545</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0278863927066111</v>
+        <v>0.04088939822632414</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1570439616.827292</v>
+        <v>1986014644.193002</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08134453306833478</v>
+        <v>0.09999143540367329</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03847932880661322</v>
+        <v>0.03874057865010466</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1786761998.820969</v>
+        <v>1725759766.754482</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1333422675444556</v>
+        <v>0.1369362726136072</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02068912431053148</v>
+        <v>0.02358970318202542</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1817862027.625017</v>
+        <v>1774265490.627279</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1436830001057283</v>
+        <v>0.1155600187155539</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05489496281293567</v>
+        <v>0.04328111405980185</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2380498801.587416</v>
+        <v>2709730328.933219</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1268695283971505</v>
+        <v>0.1377242327505434</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03806137290484432</v>
+        <v>0.04273242932854658</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3637809260.214897</v>
+        <v>3461486193.726173</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1204937583837469</v>
+        <v>0.1122357657192982</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03940140239210157</v>
+        <v>0.03826703742200911</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2603015393.596466</v>
+        <v>2954926137.330982</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1724774023697543</v>
+        <v>0.2019364855380605</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0205668749428908</v>
+        <v>0.01638336334939365</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1865436511.270509</v>
+        <v>2221576936.35311</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06248736852891955</v>
+        <v>0.06607270380445378</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03715344254230151</v>
+        <v>0.03245960442734347</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2417051683.365068</v>
+        <v>1747665672.658642</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1368840787084659</v>
+        <v>0.1470523751580525</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03984037824349451</v>
+        <v>0.04905432093092039</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4086113470.12104</v>
+        <v>5583827462.799043</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1774407335946452</v>
+        <v>0.1120074119843619</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04488294340239357</v>
+        <v>0.04362386566438133</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4167900673.190318</v>
+        <v>3307622969.843192</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1490883841932928</v>
+        <v>0.1921700893852693</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05305704907655571</v>
+        <v>0.05026771022095738</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4710664592.235376</v>
+        <v>4401244550.13368</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1002582899199169</v>
+        <v>0.07617430872104834</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02753486483320553</v>
+        <v>0.03377782534405326</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1363249488.598906</v>
+        <v>1534296914.002875</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1683638132372687</v>
+        <v>0.1423043457770413</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04468758370244864</v>
+        <v>0.03973615435101967</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3608238929.178373</v>
+        <v>2600511441.420798</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1309081287327936</v>
+        <v>0.1453083188000648</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03924637703469263</v>
+        <v>0.03253232875975893</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1110722855.311749</v>
+        <v>1297119181.427287</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1409664626396421</v>
+        <v>0.1533791677699866</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04521007193919102</v>
+        <v>0.04387690352503443</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4485297562.425619</v>
+        <v>3290177328.96567</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1323048925198958</v>
+        <v>0.09316625671920414</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03821171511299416</v>
+        <v>0.05755387944961365</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3262223331.069333</v>
+        <v>3737202712.692672</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1939051789670175</v>
+        <v>0.1573992815211434</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03159009082702262</v>
+        <v>0.03181578269705211</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3451801579.122895</v>
+        <v>4341681729.956849</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1158407159807322</v>
+        <v>0.1551719510530856</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04756182762957512</v>
+        <v>0.03634552236838934</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3008080635.529491</v>
+        <v>4079384251.510671</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1387992529577355</v>
+        <v>0.2045956440601365</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02992098823076823</v>
+        <v>0.02687806081158298</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1361312632.376807</v>
+        <v>1262109662.295446</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1252048899980391</v>
+        <v>0.1418074923412868</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03661753118638914</v>
+        <v>0.04815099687511887</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3918087041.629298</v>
+        <v>2866105844.555461</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1337720709378631</v>
+        <v>0.1392918859271186</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02597802907169894</v>
+        <v>0.01792637988230503</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1786387919.999914</v>
+        <v>1242679750.899481</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1777018636037129</v>
+        <v>0.1390427178772103</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0338013058217373</v>
+        <v>0.02882739570108874</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4363385182.370206</v>
+        <v>4822443556.492779</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09102461098265076</v>
+        <v>0.1070351153770529</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04253579757481389</v>
+        <v>0.03060822527096764</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2696240754.067253</v>
+        <v>2433036536.385772</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1905708694165412</v>
+        <v>0.1506786060845236</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03280298351075379</v>
+        <v>0.03070211948000153</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2947622359.884899</v>
+        <v>3145201853.674377</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1105679421506386</v>
+        <v>0.1804379050892363</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02966323090851927</v>
+        <v>0.03291349386484422</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1402155977.682344</v>
+        <v>1559780241.025303</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1192039265415856</v>
+        <v>0.1433990469843911</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03635479711176681</v>
+        <v>0.04828012452275242</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5300794433.056261</v>
+        <v>5494436091.042507</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1060047859204796</v>
+        <v>0.09111718272748963</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03964779326360324</v>
+        <v>0.04424843515177783</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3891638083.256375</v>
+        <v>4420505403.137061</v>
       </c>
       <c r="F64" t="n">
-        <v>0.135075024459524</v>
+        <v>0.1468772336769844</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03286578897739308</v>
+        <v>0.02653221552610024</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5708074649.565981</v>
+        <v>5581082990.771124</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1407064785329413</v>
+        <v>0.1512501394775531</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02082675998722176</v>
+        <v>0.02596691186219942</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3494192781.417508</v>
+        <v>4953019810.229198</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1261705768544027</v>
+        <v>0.1071220053412404</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04736880959719281</v>
+        <v>0.04114610430886711</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2847226260.05228</v>
+        <v>2770939940.250651</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07099249951973931</v>
+        <v>0.06989029865085235</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0438982394836953</v>
+        <v>0.03945044818937431</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3786463220.892652</v>
+        <v>5274716533.286628</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1525624173890218</v>
+        <v>0.1604977563528167</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03465618223714047</v>
+        <v>0.04336639799989402</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2087297197.970999</v>
+        <v>2214325250.688292</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1305761737209105</v>
+        <v>0.1150294985968045</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04440994361916643</v>
+        <v>0.05015153227830364</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2269605345.00586</v>
+        <v>2364638411.491028</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09025247069368079</v>
+        <v>0.0720726657166403</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03085858753898102</v>
+        <v>0.0465146429042816</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3670322042.390929</v>
+        <v>3512564315.913389</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1680444194027174</v>
+        <v>0.121578940957557</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02604844288811601</v>
+        <v>0.02520505782721606</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1388338322.65718</v>
+        <v>1853512655.078472</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09246265002178226</v>
+        <v>0.06546272562403678</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03761863944885897</v>
+        <v>0.03853944188268891</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2898937918.480237</v>
+        <v>3557745353.114768</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09786299164411845</v>
+        <v>0.08514091432341032</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03634692711530452</v>
+        <v>0.03762464088252832</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3989756388.678019</v>
+        <v>2751962486.464175</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1827000508323333</v>
+        <v>0.1434401680130657</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03312716687394163</v>
+        <v>0.03026787195147581</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2476106390.708362</v>
+        <v>1523699958.675926</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1524217481028009</v>
+        <v>0.1432287151752887</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03707301062454386</v>
+        <v>0.02290976067587517</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3753140777.14505</v>
+        <v>3954565342.252098</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1240775674347371</v>
+        <v>0.08164027224813679</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03102417739354396</v>
+        <v>0.03241442083400514</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2273708395.719658</v>
+        <v>2001399166.599231</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1128450403785595</v>
+        <v>0.1537437177483144</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02825489526779038</v>
+        <v>0.02016173641677414</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3798653390.510862</v>
+        <v>4664254566.96201</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1050826170027298</v>
+        <v>0.1170905409996507</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0473708603040224</v>
+        <v>0.0467502112319493</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1756495720.004471</v>
+        <v>1327290469.2658</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1504609006694973</v>
+        <v>0.1100470818866694</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02908558469470738</v>
+        <v>0.04063561753139375</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3389077895.740707</v>
+        <v>4538004620.561292</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09590465411476036</v>
+        <v>0.1111842395128318</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03757455990816488</v>
+        <v>0.02853552066427327</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3483614423.427887</v>
+        <v>3198812846.547595</v>
       </c>
       <c r="F81" t="n">
-        <v>0.134987893685065</v>
+        <v>0.09434506411952674</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02573494963037647</v>
+        <v>0.02019903137433696</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3939955847.661106</v>
+        <v>5421724256.271829</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1850755107669158</v>
+        <v>0.2071223230902577</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01934151739611211</v>
+        <v>0.02006312199622023</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2078606721.39732</v>
+        <v>1818319146.383141</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1467453614602671</v>
+        <v>0.1432286109663376</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02824348117834358</v>
+        <v>0.04327645578833489</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2287447897.568321</v>
+        <v>1567411596.580524</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0828876126261848</v>
+        <v>0.1086718178139904</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04791184040761651</v>
+        <v>0.04851755955632953</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2383402568.674478</v>
+        <v>2748852579.45949</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1397176814867157</v>
+        <v>0.1166622502351054</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04662044632323865</v>
+        <v>0.04243950871268583</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2693690128.050788</v>
+        <v>1913042363.21206</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1288900070886989</v>
+        <v>0.1595523402078546</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02376368510076728</v>
+        <v>0.02653874815425639</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1459953884.895733</v>
+        <v>1350126157.167909</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1605568804116749</v>
+        <v>0.1445038571505374</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03221449399795475</v>
+        <v>0.02839265097008489</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2379892996.170793</v>
+        <v>3054978655.106686</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1524127218929661</v>
+        <v>0.1409542462258193</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03711101613917328</v>
+        <v>0.02865404608867057</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2884648084.193506</v>
+        <v>2586034598.252963</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1137040204598671</v>
+        <v>0.1299017018358127</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03215765894241128</v>
+        <v>0.02958108236311147</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1997159277.143302</v>
+        <v>1340126851.008466</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1365535856320859</v>
+        <v>0.1358629825408958</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04957369927237057</v>
+        <v>0.05507178705286304</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1783716767.809447</v>
+        <v>1623472170.169943</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1275909794631125</v>
+        <v>0.1922385949864341</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04609103566980446</v>
+        <v>0.0464039266821287</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2560789161.508933</v>
+        <v>1857832538.74789</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09610430007470701</v>
+        <v>0.06753248500200329</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04712485500414688</v>
+        <v>0.03141051792033392</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4376319405.027874</v>
+        <v>4534167279.446455</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08995524630188488</v>
+        <v>0.1410268037688261</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04828302687423177</v>
+        <v>0.03978914053707468</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1818225804.262336</v>
+        <v>1735248099.62464</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1531078256474162</v>
+        <v>0.1148870264849683</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03938365660531879</v>
+        <v>0.02622628652050717</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2512505652.915513</v>
+        <v>2147394609.852329</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1094295342592638</v>
+        <v>0.1092221106027489</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04582449485002951</v>
+        <v>0.05162565661746524</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2098849511.412456</v>
+        <v>2326053856.127826</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1001049175007382</v>
+        <v>0.09451127281034299</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02994877485271568</v>
+        <v>0.03876894102608177</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3316560751.33623</v>
+        <v>4305075140.180547</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1070236266220994</v>
+        <v>0.1772352805214358</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02278197386869326</v>
+        <v>0.02507811771464756</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3073361906.796502</v>
+        <v>3264657007.778509</v>
       </c>
       <c r="F98" t="n">
-        <v>0.106188416046422</v>
+        <v>0.09906878582218664</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02619223002441447</v>
+        <v>0.03285034255165795</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3435470060.665604</v>
+        <v>3361372201.126569</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1092147872139729</v>
+        <v>0.1428421393371133</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02416550448901279</v>
+        <v>0.02807672882064192</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3574552497.754285</v>
+        <v>3057604361.837924</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1414277760225232</v>
+        <v>0.1488095170515031</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01989600738560949</v>
+        <v>0.01835000362491616</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2482906278.91627</v>
+        <v>2972997060.3823</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1981987901021839</v>
+        <v>0.13419428955533</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0483865306302957</v>
+        <v>0.05353061689489106</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_441.xlsx
+++ b/output/fit_clients/fit_round_441.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2418777430.927398</v>
+        <v>2271941270.168787</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08904326461441008</v>
+        <v>0.07551770293489707</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03426947744463623</v>
+        <v>0.0421733584695774</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1872215884.554269</v>
+        <v>1723568092.978981</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1501286849019819</v>
+        <v>0.134832348342114</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03370790581479456</v>
+        <v>0.03992694186507474</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5066428722.782322</v>
+        <v>4752223374.125329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1565409159963268</v>
+        <v>0.1517248845149885</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03472438658909109</v>
+        <v>0.02515595461062526</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>223</v>
+      </c>
+      <c r="J4" t="n">
+        <v>441</v>
+      </c>
+      <c r="K4" t="n">
+        <v>38.40365995589735</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3897500082.563125</v>
+        <v>3263050826.090147</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1015353336812683</v>
+        <v>0.09405741329536109</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04312094257198846</v>
+        <v>0.03855576216678647</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>184</v>
+      </c>
+      <c r="J5" t="n">
+        <v>440</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36.45123523761307</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2701737648.868329</v>
+        <v>2513187952.848472</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1118582408068923</v>
+        <v>0.09952784448766323</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05619441491371067</v>
+        <v>0.03454934555516959</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2969162993.398118</v>
+        <v>2677336106.837687</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09525216832651232</v>
+        <v>0.1002711931543689</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03751118251709237</v>
+        <v>0.03723465926721533</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3250278422.324477</v>
+        <v>2557163462.380005</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1834760613641757</v>
+        <v>0.1614803580315542</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02375910620870629</v>
+        <v>0.03249618673038605</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>120</v>
+      </c>
+      <c r="J8" t="n">
+        <v>440</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.95429671833492</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +752,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2079288179.53527</v>
+        <v>1675735087.937584</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1682130224081825</v>
+        <v>0.1670109002781555</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03038971534580451</v>
+        <v>0.02750732233624643</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +781,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4728232272.026275</v>
+        <v>4445777501.242792</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1636164181596121</v>
+        <v>0.2035545455119746</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04859607694644206</v>
+        <v>0.04808383055563199</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>345</v>
+      </c>
+      <c r="J10" t="n">
+        <v>441</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2672098793.961171</v>
+        <v>4127794862.053663</v>
       </c>
       <c r="F11" t="n">
-        <v>0.139619713540156</v>
+        <v>0.1641308749609996</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0360946297831378</v>
+        <v>0.04978184740198006</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>183</v>
+      </c>
+      <c r="J11" t="n">
+        <v>441</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.19373747469566</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2206978026.616012</v>
+        <v>3264817357.829555</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1732342120155384</v>
+        <v>0.1238556826052591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0468348321254999</v>
+        <v>0.04128517448389918</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +894,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5348412108.459918</v>
+        <v>3416368082.079603</v>
       </c>
       <c r="F13" t="n">
-        <v>0.087401874017391</v>
+        <v>0.09994265273537994</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02154840817825745</v>
+        <v>0.02948845887686783</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>229</v>
+      </c>
+      <c r="J13" t="n">
+        <v>440</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34.27646880871583</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2628971121.271673</v>
+        <v>3025923210.996995</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1483774751558135</v>
+        <v>0.1485953728881439</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03888593859002096</v>
+        <v>0.03300928256387953</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>96</v>
+      </c>
+      <c r="J14" t="n">
+        <v>439</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1570888199.151475</v>
+        <v>1301000772.031107</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09930099235343683</v>
+        <v>0.06634825405710496</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04216713907944607</v>
+        <v>0.03728434440514476</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2268371743.461908</v>
+        <v>2074630905.569421</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07175763623637534</v>
+        <v>0.09256200376503355</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04785205300742913</v>
+        <v>0.04542702690828422</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4613844575.156375</v>
+        <v>3568911286.950775</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1709207375397733</v>
+        <v>0.1542324863532511</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04079652275268954</v>
+        <v>0.04297024746858476</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>214</v>
+      </c>
+      <c r="J17" t="n">
+        <v>441</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3734283958.415928</v>
+        <v>3652106805.009199</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1607202994175761</v>
+        <v>0.118469918225034</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0292232363650671</v>
+        <v>0.0257944943634808</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>114</v>
+      </c>
+      <c r="J18" t="n">
+        <v>441</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1343892744.942403</v>
+        <v>959526775.9583842</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1443732519204959</v>
+        <v>0.1526664157838105</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01770008679540451</v>
+        <v>0.01869219973624548</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2510721395.755836</v>
+        <v>2224136897.4235</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1575135306383116</v>
+        <v>0.1529902815910063</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0245565083206102</v>
+        <v>0.03040859894450614</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2267116811.22727</v>
+        <v>2136051407.012684</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07544408286899734</v>
+        <v>0.07243148132329881</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03326075351998075</v>
+        <v>0.02814563871964037</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3679906925.301163</v>
+        <v>3178677901.077592</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1071387443597892</v>
+        <v>0.1026754730945273</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03721371678823807</v>
+        <v>0.05149567923586009</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1114748956.772806</v>
+        <v>1423447813.075671</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1251645505457084</v>
+        <v>0.1776267296150124</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03605711371222663</v>
+        <v>0.0505019894230419</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3522476014.562016</v>
+        <v>2800253883.709345</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09959663864289436</v>
+        <v>0.1429664343045978</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03702293568835331</v>
+        <v>0.0367477118007519</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>139</v>
+      </c>
+      <c r="J24" t="n">
+        <v>439</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>910525213.2077088</v>
+        <v>1411596617.822318</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1202300970193361</v>
+        <v>0.1054164566446894</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02280697571983635</v>
+        <v>0.01922705905913724</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1098383761.585404</v>
+        <v>1029764457.678005</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0761741683534317</v>
+        <v>0.09304012856318528</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03304070343512006</v>
+        <v>0.02684852769772972</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3124970373.455836</v>
+        <v>3868530480.851404</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1024314020788376</v>
+        <v>0.1217474874808593</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0179658958707082</v>
+        <v>0.02592315515683146</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>191</v>
+      </c>
+      <c r="J27" t="n">
+        <v>441</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3596885105.65667</v>
+        <v>3294738388.207191</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1476001042035167</v>
+        <v>0.1050588373455425</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03459328523228359</v>
+        <v>0.04691301277960423</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4764748042.957742</v>
+        <v>4185604763.902816</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1490879125562992</v>
+        <v>0.1498408731071889</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03305134529751795</v>
+        <v>0.03869229680592632</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>361</v>
+      </c>
+      <c r="J29" t="n">
+        <v>441</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1778484180.598342</v>
+        <v>1693632941.486724</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1315492394882851</v>
+        <v>0.08722952393475723</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02691916103581032</v>
+        <v>0.0309531935760086</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1021890537.5708</v>
+        <v>1471221907.765612</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08418919900227977</v>
+        <v>0.0971435617860533</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04145515450508006</v>
+        <v>0.04366688186306896</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1418490089.585738</v>
+        <v>1424825689.338105</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1156233552382834</v>
+        <v>0.0728216675227938</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03216088768521943</v>
+        <v>0.03423687431325298</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1941420726.645287</v>
+        <v>1892003237.771881</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2092576472371474</v>
+        <v>0.2038740898947679</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04596344586821242</v>
+        <v>0.05255975888178483</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1108695047.826239</v>
+        <v>1018228092.017669</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08889585301235192</v>
+        <v>0.07633945002208037</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02305723161691168</v>
+        <v>0.01953226136558397</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1222832062.792363</v>
+        <v>1065259922.309166</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09727526660769757</v>
+        <v>0.1034603294300291</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03510740998856453</v>
+        <v>0.04215923060716958</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2332589098.663006</v>
+        <v>2755776950.960304</v>
       </c>
       <c r="F36" t="n">
-        <v>0.124962977280228</v>
+        <v>0.1166561508722172</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01906928997110365</v>
+        <v>0.02849165677939556</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2200256395.742783</v>
+        <v>1995584042.052201</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1006830450083545</v>
+        <v>0.1104630302391684</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04088939822632414</v>
+        <v>0.03700345850920159</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1986014644.193002</v>
+        <v>1904598382.051642</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09999143540367329</v>
+        <v>0.1119333300741988</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03874057865010466</v>
+        <v>0.03045313902508208</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1725759766.754482</v>
+        <v>1978795149.19622</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1369362726136072</v>
+        <v>0.1382267780120041</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02358970318202542</v>
+        <v>0.02699779349124121</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1774265490.627279</v>
+        <v>1366797876.286947</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1155600187155539</v>
+        <v>0.1593764307761233</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04328111405980185</v>
+        <v>0.04431364570070394</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2709730328.933219</v>
+        <v>2614998859.439685</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1377242327505434</v>
+        <v>0.1447354090325485</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04273242932854658</v>
+        <v>0.0349647275774873</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3461486193.726173</v>
+        <v>2818771815.787139</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1122357657192982</v>
+        <v>0.0923046722421542</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03826703742200911</v>
+        <v>0.04121663094760417</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>191</v>
+      </c>
+      <c r="J42" t="n">
+        <v>440</v>
+      </c>
+      <c r="K42" t="n">
+        <v>27.3423636744129</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2954926137.330982</v>
+        <v>2942804429.382805</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2019364855380605</v>
+        <v>0.2044716755567378</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01638336334939365</v>
+        <v>0.02037283522172151</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2221576936.35311</v>
+        <v>1638497652.778223</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06607270380445378</v>
+        <v>0.09327226308359531</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03245960442734347</v>
+        <v>0.03689382955191967</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1747665672.658642</v>
+        <v>2294754296.55989</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1470523751580525</v>
+        <v>0.19281833250144</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04905432093092039</v>
+        <v>0.04155150933052418</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5583827462.799043</v>
+        <v>5261117094.536338</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1120074119843619</v>
+        <v>0.1096684647437278</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04362386566438133</v>
+        <v>0.05187463148928102</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>262</v>
+      </c>
+      <c r="J46" t="n">
+        <v>441</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3307622969.843192</v>
+        <v>4277026872.210948</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1921700893852693</v>
+        <v>0.1410096948178586</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05026771022095738</v>
+        <v>0.05910688792194097</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>198</v>
+      </c>
+      <c r="J47" t="n">
+        <v>440</v>
+      </c>
+      <c r="K47" t="n">
+        <v>36.34553280490259</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4401244550.13368</v>
+        <v>3169145827.545516</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07617430872104834</v>
+        <v>0.08668051364511528</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03377782534405326</v>
+        <v>0.03648242338874643</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>222</v>
+      </c>
+      <c r="J48" t="n">
+        <v>435</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1534296914.002875</v>
+        <v>1281026332.714064</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1423043457770413</v>
+        <v>0.1223008874787581</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03973615435101967</v>
+        <v>0.03100560441571027</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2600511441.420798</v>
+        <v>3565551614.467329</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1453083188000648</v>
+        <v>0.1744738384830898</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03253232875975893</v>
+        <v>0.03667150932458632</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>155</v>
+      </c>
+      <c r="J50" t="n">
+        <v>441</v>
+      </c>
+      <c r="K50" t="n">
+        <v>43.43027334451875</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1297119181.427287</v>
+        <v>1140740183.203353</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1533791677699866</v>
+        <v>0.1491319160066344</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04387690352503443</v>
+        <v>0.05122923894151686</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3290177328.96567</v>
+        <v>5065924513.873322</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09316625671920414</v>
+        <v>0.1056799482878018</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05755387944961365</v>
+        <v>0.04272632915627633</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>252</v>
+      </c>
+      <c r="J52" t="n">
+        <v>440</v>
+      </c>
+      <c r="K52" t="n">
+        <v>31.87220653865944</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3737202712.692672</v>
+        <v>3145418270.048659</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1573992815211434</v>
+        <v>0.1444975382517532</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03181578269705211</v>
+        <v>0.0304139222765557</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>67</v>
+      </c>
+      <c r="J53" t="n">
+        <v>439</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4341681729.956849</v>
+        <v>3882379819.31351</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1551719510530856</v>
+        <v>0.1560117964150432</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03634552236838934</v>
+        <v>0.04388941517008059</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>233</v>
+      </c>
+      <c r="J54" t="n">
+        <v>441</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4079384251.510671</v>
+        <v>3291495487.116663</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2045956440601365</v>
+        <v>0.1813360966189773</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02687806081158298</v>
+        <v>0.02874553046264634</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>219</v>
+      </c>
+      <c r="J55" t="n">
+        <v>440</v>
+      </c>
+      <c r="K55" t="n">
+        <v>33.46458910708078</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1262109662.295446</v>
+        <v>1536781729.183347</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1418074923412868</v>
+        <v>0.1280938262836649</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04815099687511887</v>
+        <v>0.05397064291278771</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2866105844.555461</v>
+        <v>3711097639.185723</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1392918859271186</v>
+        <v>0.1207053850798028</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01792637988230503</v>
+        <v>0.02170823963191216</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>191</v>
+      </c>
+      <c r="J57" t="n">
+        <v>441</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1242679750.899481</v>
+        <v>1536001767.980492</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1390427178772103</v>
+        <v>0.1863728754865044</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02882739570108874</v>
+        <v>0.03648523895469896</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4822443556.492779</v>
+        <v>5411725315.956594</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1070351153770529</v>
+        <v>0.08869140907706333</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03060822527096764</v>
+        <v>0.04819422099157726</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>215</v>
+      </c>
+      <c r="J59" t="n">
+        <v>441</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2433036536.385772</v>
+        <v>3352662574.195905</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1506786060845236</v>
+        <v>0.147394317504625</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03070211948000153</v>
+        <v>0.03177675441733037</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3145201853.674377</v>
+        <v>2272516484.452712</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1804379050892363</v>
+        <v>0.1706640369267625</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03291349386484422</v>
+        <v>0.0302903322082827</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1559780241.025303</v>
+        <v>1908842724.767858</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1433990469843911</v>
+        <v>0.1513864044269923</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04828012452275242</v>
+        <v>0.03657408398633763</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5494436091.042507</v>
+        <v>5259669112.958679</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09111718272748963</v>
+        <v>0.1018203385213551</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04424843515177783</v>
+        <v>0.04187995355585897</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>220</v>
+      </c>
+      <c r="J63" t="n">
+        <v>440</v>
+      </c>
+      <c r="K63" t="n">
+        <v>36.07768016196865</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4420505403.137061</v>
+        <v>3353577034.383809</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1468772336769844</v>
+        <v>0.1908557893754059</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02653221552610024</v>
+        <v>0.03336552285281155</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>221</v>
+      </c>
+      <c r="J64" t="n">
+        <v>440</v>
+      </c>
+      <c r="K64" t="n">
+        <v>30.52378247699597</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5581082990.771124</v>
+        <v>4764787164.366344</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1512501394775531</v>
+        <v>0.1253080773009481</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02596691186219942</v>
+        <v>0.02627555800781472</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>318</v>
+      </c>
+      <c r="J65" t="n">
+        <v>440</v>
+      </c>
+      <c r="K65" t="n">
+        <v>35.41196741129272</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4953019810.229198</v>
+        <v>3693373374.48952</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1071220053412404</v>
+        <v>0.1622157760938335</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04114610430886711</v>
+        <v>0.04350163515414403</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>217</v>
+      </c>
+      <c r="J66" t="n">
+        <v>441</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2770939940.250651</v>
+        <v>2225608301.316576</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06989029865085235</v>
+        <v>0.08317116146494999</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03945044818937431</v>
+        <v>0.03395453953277215</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5274716533.286628</v>
+        <v>5892017041.408788</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1604977563528167</v>
+        <v>0.1356929020723212</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04336639799989402</v>
+        <v>0.04300382994496385</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>240</v>
+      </c>
+      <c r="J68" t="n">
+        <v>441</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2214325250.688292</v>
+        <v>1975328041.105852</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1150294985968045</v>
+        <v>0.1789292340595649</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05015153227830364</v>
+        <v>0.04724189892280208</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2364638411.491028</v>
+        <v>3348715564.556219</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0720726657166403</v>
+        <v>0.1004256523066508</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0465146429042816</v>
+        <v>0.03713017633145965</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3512564315.913389</v>
+        <v>5173037301.103869</v>
       </c>
       <c r="F71" t="n">
-        <v>0.121578940957557</v>
+        <v>0.1615182538031388</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02520505782721606</v>
+        <v>0.02165637465071851</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>304</v>
+      </c>
+      <c r="J71" t="n">
+        <v>440</v>
+      </c>
+      <c r="K71" t="n">
+        <v>37.88397287938557</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1853512655.078472</v>
+        <v>1828236597.227049</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06546272562403678</v>
+        <v>0.08977590143253886</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03853944188268891</v>
+        <v>0.04470299024081587</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3557745353.114768</v>
+        <v>3535721536.371055</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08514091432341032</v>
+        <v>0.07376807243003064</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03762464088252832</v>
+        <v>0.04735507912288881</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="n">
+        <v>441</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2751962486.464175</v>
+        <v>3439672710.302043</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1434401680130657</v>
+        <v>0.1833566114318757</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03026787195147581</v>
+        <v>0.03374135612978662</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1523699958.675926</v>
+        <v>2388876876.180141</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1432287151752887</v>
+        <v>0.1044516433854709</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02290976067587517</v>
+        <v>0.02954853443689319</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3954565342.252098</v>
+        <v>3885228822.243465</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08164027224813679</v>
+        <v>0.1117432187019927</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03241442083400514</v>
+        <v>0.02492967375080821</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>210</v>
+      </c>
+      <c r="J76" t="n">
+        <v>441</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2001399166.599231</v>
+        <v>1859731074.282144</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1537437177483144</v>
+        <v>0.1292520958867873</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02016173641677414</v>
+        <v>0.02951931493743588</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4664254566.96201</v>
+        <v>3260385279.513368</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1170905409996507</v>
+        <v>0.1299858505187498</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0467502112319493</v>
+        <v>0.04136906873909604</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>221</v>
+      </c>
+      <c r="J78" t="n">
+        <v>440</v>
+      </c>
+      <c r="K78" t="n">
+        <v>30.05417601358579</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1327290469.2658</v>
+        <v>1473192082.930922</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1100470818866694</v>
+        <v>0.1346065516034941</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04063561753139375</v>
+        <v>0.03999408424886204</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4538004620.561292</v>
+        <v>5135033226.214406</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1111842395128318</v>
+        <v>0.1002731124533472</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02853552066427327</v>
+        <v>0.02947384616817291</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>215</v>
+      </c>
+      <c r="J80" t="n">
+        <v>440</v>
+      </c>
+      <c r="K80" t="n">
+        <v>35.59200851082537</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3298,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3198812846.547595</v>
+        <v>4713548940.575434</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09434506411952674</v>
+        <v>0.09042972750200191</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02019903137433696</v>
+        <v>0.02107997078983079</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>204</v>
+      </c>
+      <c r="J81" t="n">
+        <v>441</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5421724256.271829</v>
+        <v>5540338613.226195</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2071223230902577</v>
+        <v>0.1381595680163825</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02006312199622023</v>
+        <v>0.02882797727258861</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>296</v>
+      </c>
+      <c r="J82" t="n">
+        <v>440</v>
+      </c>
+      <c r="K82" t="n">
+        <v>37.35247907300982</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1818319146.383141</v>
+        <v>2213587813.440608</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1432286109663376</v>
+        <v>0.1174421750168607</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04327645578833489</v>
+        <v>0.04273033470754775</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1567411596.580524</v>
+        <v>1639924421.790955</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1086718178139904</v>
+        <v>0.1103017820199026</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04851755955632953</v>
+        <v>0.03240517152762863</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2748852579.45949</v>
+        <v>3472478469.032156</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1166622502351054</v>
+        <v>0.1849204957068882</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04243950871268583</v>
+        <v>0.03585620157074917</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>438</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1913042363.21206</v>
+        <v>2143647717.089862</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1595523402078546</v>
+        <v>0.1067526136117387</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02653874815425639</v>
+        <v>0.01691570214430992</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1350126157.167909</v>
+        <v>1008406834.357153</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1445038571505374</v>
+        <v>0.1890554029068976</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02839265097008489</v>
+        <v>0.02710838736871528</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3054978655.106686</v>
+        <v>3535025071.367589</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1409542462258193</v>
+        <v>0.1603054445854305</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02865404608867057</v>
+        <v>0.02700841711258668</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2586034598.252963</v>
+        <v>2290329207.577749</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1299017018358127</v>
+        <v>0.157208272603531</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02958108236311147</v>
+        <v>0.04134423214644316</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1340126851.008466</v>
+        <v>1974028435.583005</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1358629825408958</v>
+        <v>0.09870882589445908</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05507178705286304</v>
+        <v>0.03529639985327079</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1623472170.169943</v>
+        <v>1802123891.63735</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1922385949864341</v>
+        <v>0.1329149893634157</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0464039266821287</v>
+        <v>0.05069513564981574</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1857832538.74789</v>
+        <v>2278176143.465342</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06753248500200329</v>
+        <v>0.10422443258793</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03141051792033392</v>
+        <v>0.04135502080193584</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4534167279.446455</v>
+        <v>4137695615.146654</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1410268037688261</v>
+        <v>0.1184749820738533</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03978914053707468</v>
+        <v>0.03526217037197341</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>211</v>
+      </c>
+      <c r="J93" t="n">
+        <v>441</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1735248099.62464</v>
+        <v>1912465036.260311</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1148870264849683</v>
+        <v>0.1451517462381305</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02622628652050717</v>
+        <v>0.03024079842104678</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3790,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2147394609.852329</v>
+        <v>2404610420.84093</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1092221106027489</v>
+        <v>0.1203729326464845</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05162565661746524</v>
+        <v>0.03325196964199448</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2326053856.127826</v>
+        <v>1917295394.214241</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09451127281034299</v>
+        <v>0.1301550083227503</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03876894102608177</v>
+        <v>0.03992792341000166</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3860,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4305075140.180547</v>
+        <v>4603200762.361417</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1772352805214358</v>
+        <v>0.1607100839319619</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02507811771464756</v>
+        <v>0.0188774990321475</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>230</v>
+      </c>
+      <c r="J97" t="n">
+        <v>441</v>
+      </c>
+      <c r="K97" t="n">
+        <v>39.02338808064827</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3897,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3264657007.778509</v>
+        <v>2401548204.290353</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09906878582218664</v>
+        <v>0.09250715065415226</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03285034255165795</v>
+        <v>0.02458952725118022</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3361372201.126569</v>
+        <v>2467517880.549951</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1428421393371133</v>
+        <v>0.1423639473285256</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02807672882064192</v>
+        <v>0.03281759831242045</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3057604361.837924</v>
+        <v>2978750882.419419</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1488095170515031</v>
+        <v>0.1589248201551644</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01835000362491616</v>
+        <v>0.02743777182222906</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>205</v>
+      </c>
+      <c r="J100" t="n">
+        <v>440</v>
+      </c>
+      <c r="K100" t="n">
+        <v>26.38358252940925</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2972997060.3823</v>
+        <v>3369134379.558125</v>
       </c>
       <c r="F101" t="n">
-        <v>0.13419428955533</v>
+        <v>0.1887501354052078</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05353061689489106</v>
+        <v>0.04781555586572411</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>41</v>
+      </c>
+      <c r="J101" t="n">
+        <v>441</v>
+      </c>
+      <c r="K101" t="n">
+        <v>70.30645497109914</v>
       </c>
     </row>
   </sheetData>
